--- a/Meta/Documents/Setups.xlsx
+++ b/Meta/Documents/Setups.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wouter\Documents\UU\0. Small project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -694,9 +689,57 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,15 +749,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,50 +771,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1059,7 +1054,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1073,7 +1068,7 @@
   <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,96 +1077,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
-      <c r="G1" s="87" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="102"/>
+      <c r="G1" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="89"/>
-      <c r="M1" s="90" t="s">
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="102"/>
+      <c r="M1" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="92"/>
-      <c r="S1" s="81" t="s">
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="105"/>
+      <c r="S1" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="83"/>
-      <c r="Y1" s="84" t="s">
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="99"/>
+      <c r="Y1" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="86"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="96"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="80"/>
+      <c r="E2" s="93"/>
       <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80" t="s">
+      <c r="I2" s="93"/>
+      <c r="J2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="80"/>
+      <c r="K2" s="93"/>
       <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="93"/>
+      <c r="P2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="80"/>
+      <c r="Q2" s="93"/>
       <c r="S2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="T2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80" t="s">
+      <c r="U2" s="93"/>
+      <c r="V2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="80"/>
+      <c r="W2" s="93"/>
       <c r="Y2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="80" t="s">
+      <c r="Z2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80" t="s">
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="AC2" s="80"/>
+      <c r="AC2" s="93"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1456,80 +1451,80 @@
       <c r="G6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="95">
+      <c r="H6" s="86">
         <f>SUM(H3:I5)</f>
         <v>27</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="98">
+      <c r="I6" s="86"/>
+      <c r="J6" s="89">
         <f>SUM(J3:K5)</f>
         <v>27</v>
       </c>
-      <c r="K6" s="98"/>
+      <c r="K6" s="89"/>
       <c r="M6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="95">
+      <c r="N6" s="86">
         <f>SUM(N3:O5)</f>
         <v>9</v>
       </c>
-      <c r="O6" s="95"/>
-      <c r="P6" s="98">
+      <c r="O6" s="86"/>
+      <c r="P6" s="89">
         <f>SUM(P3:Q5)</f>
         <v>9</v>
       </c>
-      <c r="Q6" s="98"/>
+      <c r="Q6" s="89"/>
       <c r="S6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="93">
+      <c r="T6" s="106">
         <f>SUM(T3:U5)</f>
         <v>9</v>
       </c>
-      <c r="U6" s="94"/>
-      <c r="V6" s="96">
+      <c r="U6" s="107"/>
+      <c r="V6" s="87">
         <f>SUM(V3:W5)</f>
         <v>9</v>
       </c>
-      <c r="W6" s="97"/>
+      <c r="W6" s="88"/>
       <c r="Y6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="95">
+      <c r="Z6" s="86">
         <f>SUM(Z3:AA5)</f>
         <v>9</v>
       </c>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="98">
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="89">
         <f>SUM(AB3:AC5)</f>
         <v>9</v>
       </c>
-      <c r="AC6" s="98"/>
+      <c r="AC6" s="89"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100" t="s">
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101" t="s">
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="80" t="s">
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
       <c r="O8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1578,7 +1573,7 @@
         <v>17</v>
       </c>
       <c r="K9" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" s="22" t="s">
         <v>15</v>
@@ -1949,58 +1944,58 @@
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80" t="s">
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80" t="s">
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80" t="s">
+      <c r="I23" s="93"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="105" t="s">
+      <c r="B24" s="81"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="106" t="s">
+      <c r="F24" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="107" t="s">
+      <c r="G24" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="105" t="s">
+      <c r="H24" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="107" t="s">
+      <c r="J24" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="105" t="s">
+      <c r="K24" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="106" t="s">
+      <c r="L24" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="107" t="s">
+      <c r="M24" s="85" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2299,22 +2294,6 @@
     <row r="39" spans="1:1" s="47" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="H23:J23"/>
@@ -2330,6 +2309,22 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="T6:U6"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
